--- a/Excel/RTS/Unit.xlsx
+++ b/Excel/RTS/Unit.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="unit" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +73,9 @@
     <t>#备注</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>ID 
@@ -1210,1308 +1222,1345 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:M18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
-    <col min="7" max="12" width="10.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.19166666666667" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.96666666666667" style="2" customWidth="1"/>
-    <col min="15" max="16" width="7.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="22.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="9" max="14" width="10.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.19166666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.96666666666667" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:20">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:18">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:20">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" customHeight="1" spans="1:18">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="60" customHeight="1" spans="1:20">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
-      <c r="A4" s="3">
+    <row r="5" s="1" customFormat="1" spans="1:20">
+      <c r="A5"/>
+      <c r="C5" s="3">
         <v>1101</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3">
         <v>1672401101</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:20">
+      <c r="A6"/>
+      <c r="C6" s="3">
+        <v>1102</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="3">
+      <c r="E6" s="3">
+        <v>1672401102</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="3">
         <v>1.2</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="K6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3">
         <v>1.5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O6" s="3">
         <v>10</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P6" s="3">
         <v>5</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:18">
-      <c r="A5" s="3">
-        <v>1102</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1672401102</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:18">
-      <c r="A6" s="3">
-        <v>1103</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1672401103</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M6" s="3">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3">
-        <v>5</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="S6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:18">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" spans="1:20">
+      <c r="A7"/>
+      <c r="C7" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1672401103</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:20">
+      <c r="A8"/>
+      <c r="C8" s="3">
         <v>1104</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3">
         <v>1672401104</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:20">
+      <c r="A9"/>
+      <c r="C9" s="3">
+        <v>1105</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1672401105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:20">
+      <c r="A10"/>
+      <c r="C10" s="3">
+        <v>1201</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1672401201</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>15</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:20">
+      <c r="A11"/>
+      <c r="C11" s="3">
+        <v>1202</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1672401202</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:20">
+      <c r="A12"/>
+      <c r="C12" s="3">
+        <v>1203</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1672401203</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>15</v>
+      </c>
+      <c r="P12" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:20">
+      <c r="A13"/>
+      <c r="C13" s="3">
+        <v>1204</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1672401204</v>
+      </c>
+      <c r="F13" s="3">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="3">
+        <v>15</v>
+      </c>
+      <c r="P13" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:20">
+      <c r="A14"/>
+      <c r="C14" s="3">
+        <v>1205</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1672401205</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>15</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:20">
+      <c r="A15"/>
+      <c r="C15" s="3">
+        <v>1301</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1672401301</v>
+      </c>
+      <c r="F15" s="3">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="O15" s="3">
+        <v>30</v>
+      </c>
+      <c r="P15" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:20">
+      <c r="A16"/>
+      <c r="C16" s="3">
+        <v>1302</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1672401302</v>
+      </c>
+      <c r="F16" s="3">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="O16" s="3">
+        <v>30</v>
+      </c>
+      <c r="P16" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:20">
+      <c r="A17"/>
+      <c r="C17" s="3">
+        <v>1303</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1672401303</v>
+      </c>
+      <c r="F17" s="3">
+        <v>50</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="O17" s="3">
+        <v>30</v>
+      </c>
+      <c r="P17" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:20">
+      <c r="A18"/>
+      <c r="C18" s="3">
+        <v>1304</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1672401304</v>
+      </c>
+      <c r="F18" s="3">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="O18" s="3">
+        <v>30</v>
+      </c>
+      <c r="P18" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:20">
+      <c r="A19"/>
+      <c r="C19" s="3">
+        <v>1305</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1672401305</v>
+      </c>
+      <c r="F19" s="3">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="O19" s="3">
+        <v>30</v>
+      </c>
+      <c r="P19" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:20">
+      <c r="A20"/>
+      <c r="C20" s="3">
+        <v>1401</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1672401401</v>
+      </c>
+      <c r="F20" s="3">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="H20" s="3">
+        <v>25</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="3">
         <v>1.5</v>
       </c>
-      <c r="M7" s="3">
-        <v>10</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="O20" s="3">
+        <v>20</v>
+      </c>
+      <c r="P20" s="3">
         <v>5</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:20">
+      <c r="A21"/>
+      <c r="C21" s="3">
+        <v>1402</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1672401402</v>
+      </c>
+      <c r="F21" s="3">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>52</v>
+      <c r="J21" s="3">
+        <v>15</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O21" s="3">
+        <v>20</v>
+      </c>
+      <c r="P21" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:18">
-      <c r="A8" s="3">
-        <v>1105</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1672401105</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:20">
+      <c r="A22"/>
+      <c r="C22" s="3">
+        <v>1403</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1672401403</v>
+      </c>
+      <c r="F22" s="3">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="H22" s="3">
+        <v>25</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="3">
         <v>1.5</v>
       </c>
-      <c r="M8" s="3">
-        <v>10</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O22" s="3">
+        <v>20</v>
+      </c>
+      <c r="P22" s="3">
         <v>5</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:20">
+      <c r="A23"/>
+      <c r="C23" s="3">
+        <v>1404</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1672401404</v>
+      </c>
+      <c r="F23" s="3">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="3">
+        <v>25</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>53</v>
+      <c r="J23" s="3">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="O23" s="3">
+        <v>20</v>
+      </c>
+      <c r="P23" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="3">
-        <v>1201</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1672401201</v>
-      </c>
-      <c r="D9" s="3">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:20">
+      <c r="A24"/>
+      <c r="C24" s="3">
+        <v>1405</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1672401405</v>
+      </c>
+      <c r="F24" s="3">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="3">
+        <v>25</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="3">
         <v>1.5</v>
       </c>
-      <c r="M9" s="3">
-        <v>15</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O24" s="3">
+        <v>20</v>
+      </c>
+      <c r="P24" s="3">
         <v>5</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:18">
-      <c r="A10" s="3">
-        <v>1202</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1672401202</v>
-      </c>
-      <c r="D10" s="3">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M10" s="3">
-        <v>15</v>
-      </c>
-      <c r="N10" s="3">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:18">
-      <c r="A11" s="3">
-        <v>1203</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1672401203</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M11" s="3">
-        <v>15</v>
-      </c>
-      <c r="N11" s="3">
-        <v>5</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:18">
-      <c r="A12" s="3">
-        <v>1204</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1672401204</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="3">
-        <v>15</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:18">
-      <c r="A13" s="3">
-        <v>1205</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1672401205</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M13" s="3">
-        <v>15</v>
-      </c>
-      <c r="N13" s="3">
-        <v>5</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:18">
-      <c r="A14" s="3">
-        <v>1301</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1672401301</v>
-      </c>
-      <c r="D14" s="3">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M14" s="3">
-        <v>30</v>
-      </c>
-      <c r="N14" s="3">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:18">
-      <c r="A15" s="3">
-        <v>1302</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1672401302</v>
-      </c>
-      <c r="D15" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M15" s="3">
-        <v>30</v>
-      </c>
-      <c r="N15" s="3">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:18">
-      <c r="A16" s="3">
-        <v>1303</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1672401303</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M16" s="3">
-        <v>30</v>
-      </c>
-      <c r="N16" s="3">
-        <v>5</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:18">
-      <c r="A17" s="3">
-        <v>1304</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1672401304</v>
-      </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M17" s="3">
-        <v>30</v>
-      </c>
-      <c r="N17" s="3">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:18">
-      <c r="A18" s="3">
-        <v>1305</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1672401305</v>
-      </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M18" s="3">
-        <v>30</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:18">
-      <c r="A19" s="3">
-        <v>1401</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1672401401</v>
-      </c>
-      <c r="D19" s="3">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="3">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="3">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M19" s="3">
-        <v>20</v>
-      </c>
-      <c r="N19" s="3">
-        <v>5</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:18">
-      <c r="A20" s="3">
-        <v>1402</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1672401402</v>
-      </c>
-      <c r="D20" s="3">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="3">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M20" s="3">
-        <v>20</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:18">
-      <c r="A21" s="3">
-        <v>1403</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1672401403</v>
-      </c>
-      <c r="D21" s="3">
-        <v>40</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="3">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="3">
-        <v>15</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>20</v>
-      </c>
-      <c r="N21" s="3">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:18">
-      <c r="A22" s="3">
-        <v>1404</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1672401404</v>
-      </c>
-      <c r="D22" s="3">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3">
-        <v>25</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="3">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>20</v>
-      </c>
-      <c r="N22" s="3">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:18">
-      <c r="A23" s="3">
-        <v>1405</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1672401405</v>
-      </c>
-      <c r="D23" s="3">
-        <v>40</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3">
-        <v>25</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="3">
-        <v>15</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M23" s="3">
-        <v>20</v>
-      </c>
-      <c r="N23" s="3">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>69</v>
+      <c r="Q24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I10:I13" numberStoredAsText="1"/>
+    <ignoredError sqref="K11:K14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/RTS/Unit.xlsx
+++ b/Excel/RTS/Unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -22,7 +22,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>_unitType</t>
+    <t>UnitType</t>
   </si>
   <si>
     <t>name</t>
@@ -149,37 +149,37 @@
     <t>Infantry</t>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Human_Infantry_1</t>
+  </si>
+  <si>
+    <t>帝国步兵</t>
+  </si>
+  <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>Human_Infantry_1</t>
-  </si>
-  <si>
-    <t>帝国步兵</t>
   </si>
   <si>
     <t>资深步兵</t>
@@ -1222,112 +1222,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.1416666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="14" width="10.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.19166666666667" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.96666666666667" style="2" customWidth="1"/>
-    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="13" width="10.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.19166666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.96666666666667" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" s="1" customFormat="1" spans="1:19">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>22</v>
@@ -1345,7 +1347,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>20</v>
@@ -1354,88 +1356,88 @@
         <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="60" customHeight="1" spans="1:20">
+    <row r="4" s="1" customFormat="1" ht="61" customHeight="1" spans="1:19">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    <row r="5" s="1" customFormat="1" spans="1:19">
       <c r="A5"/>
-      <c r="C5" s="3">
-        <v>1101</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D5" s="3">
+        <v>1672401101</v>
+      </c>
       <c r="E5" s="3">
-        <v>1672401101</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>43</v>
@@ -1446,11 +1448,11 @@
       <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.2</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>47</v>
@@ -1458,17 +1460,17 @@
       <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
-      <c r="P5" s="3">
-        <v>5</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>50</v>
@@ -1479,20 +1481,20 @@
       <c r="S5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="3" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:19">
+      <c r="A6"/>
+      <c r="B6" s="3">
+        <v>1101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1672401101</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:20">
-      <c r="A6"/>
-      <c r="C6" s="3">
-        <v>1102</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1672401102</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>43</v>
@@ -1503,11 +1505,11 @@
       <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.2</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>47</v>
@@ -1515,17 +1517,17 @@
       <c r="L6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="3">
-        <v>10</v>
-      </c>
-      <c r="P6" s="3">
-        <v>5</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>50</v>
@@ -1536,20 +1538,20 @@
       <c r="S6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    <row r="7" s="1" customFormat="1" spans="1:19">
       <c r="A7"/>
-      <c r="C7" s="3">
-        <v>1103</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>1102</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3">
-        <v>1672401103</v>
+      <c r="D7" s="3">
+        <v>1672401102</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -1560,11 +1562,11 @@
       <c r="H7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.2</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>47</v>
@@ -1572,17 +1574,17 @@
       <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="3">
-        <v>10</v>
-      </c>
-      <c r="P7" s="3">
-        <v>5</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>50</v>
@@ -1591,22 +1593,22 @@
         <v>51</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:20">
+    <row r="8" s="1" customFormat="1" spans="1:19">
       <c r="A8"/>
-      <c r="C8" s="3">
-        <v>1104</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>1103</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3">
-        <v>1672401104</v>
+      <c r="D8" s="3">
+        <v>1672401103</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>43</v>
@@ -1617,11 +1619,11 @@
       <c r="H8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.2</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>47</v>
@@ -1629,17 +1631,17 @@
       <c r="L8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O8" s="3">
-        <v>10</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>50</v>
@@ -1648,22 +1650,22 @@
         <v>51</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:20">
+    <row r="9" s="1" customFormat="1" spans="1:19">
       <c r="A9"/>
-      <c r="C9" s="3">
-        <v>1105</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>1104</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="3">
-        <v>1672401105</v>
+      <c r="D9" s="3">
+        <v>1672401104</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>43</v>
@@ -1674,11 +1676,11 @@
       <c r="H9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.2</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>47</v>
@@ -1686,17 +1688,17 @@
       <c r="L9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O9" s="3">
-        <v>10</v>
-      </c>
-      <c r="P9" s="3">
-        <v>5</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>50</v>
@@ -1705,55 +1707,55 @@
         <v>51</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:20">
+    <row r="10" s="1" customFormat="1" spans="1:19">
       <c r="A10"/>
-      <c r="C10" s="3">
-        <v>1201</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1672401201</v>
-      </c>
-      <c r="F10" s="3">
-        <v>50</v>
+      <c r="B10" s="3">
+        <v>1105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1672401105</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O10" s="3">
-        <v>15</v>
-      </c>
-      <c r="P10" s="3">
-        <v>5</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>50</v>
@@ -1762,320 +1764,322 @@
         <v>51</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:19">
+      <c r="A11"/>
+      <c r="B11" s="3">
+        <v>1201</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1672401201</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N11" s="3">
+        <v>15</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:20">
-      <c r="A11"/>
-      <c r="C11" s="3">
+    <row r="12" s="1" customFormat="1" spans="1:19">
+      <c r="A12"/>
+      <c r="B12" s="3">
         <v>1202</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D12" s="3">
         <v>1672401202</v>
       </c>
-      <c r="F11" s="3">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="L12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:19">
+      <c r="A13"/>
+      <c r="B13" s="3">
+        <v>1203</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1672401203</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="3">
         <v>1.5</v>
       </c>
-      <c r="O11" s="3">
+      <c r="N13" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="O13" s="3">
         <v>5</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="P13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>64</v>
+      <c r="S13" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:20">
-      <c r="A12"/>
-      <c r="C12" s="3">
-        <v>1203</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:19">
+      <c r="A14"/>
+      <c r="B14" s="3">
+        <v>1204</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="3">
-        <v>1672401203</v>
-      </c>
-      <c r="F12" s="3">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="D14" s="3">
+        <v>1672401204</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>15</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="3">
-        <v>15</v>
-      </c>
-      <c r="P12" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" s="3" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>65</v>
+      <c r="S14" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:20">
-      <c r="A13"/>
-      <c r="C13" s="3">
-        <v>1204</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:19">
+      <c r="A15"/>
+      <c r="B15" s="3">
+        <v>1205</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="3">
-        <v>1672401204</v>
-      </c>
-      <c r="F13" s="3">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="D15" s="3">
+        <v>1672401205</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O13" s="3">
-        <v>15</v>
-      </c>
-      <c r="P13" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:20">
-      <c r="A14"/>
-      <c r="C14" s="3">
-        <v>1205</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1672401205</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>15</v>
-      </c>
-      <c r="P14" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:20">
-      <c r="A15"/>
-      <c r="C15" s="3">
-        <v>1301</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1672401301</v>
-      </c>
-      <c r="F15" s="3">
-        <v>50</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1.8</v>
+        <v>59</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>15</v>
+      </c>
+      <c r="O15" s="3">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O15" s="3">
-        <v>30</v>
-      </c>
-      <c r="P15" s="3">
-        <v>5</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="3"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:20">
+    <row r="16" s="1" customFormat="1" spans="1:19">
       <c r="A16"/>
-      <c r="C16" s="3">
-        <v>1302</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>1301</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D16" s="3">
+        <v>1672401301</v>
+      </c>
       <c r="E16" s="3">
-        <v>1672401302</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3">
         <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.8</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>47</v>
@@ -2083,54 +2087,54 @@
       <c r="L16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N16" s="3">
+        <v>30</v>
+      </c>
+      <c r="O16" s="3">
+        <v>5</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O16" s="3">
-        <v>30</v>
-      </c>
-      <c r="P16" s="3">
-        <v>5</v>
-      </c>
       <c r="Q16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:20">
+    <row r="17" s="1" customFormat="1" spans="1:19">
       <c r="A17"/>
-      <c r="C17" s="3">
-        <v>1303</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>1302</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D17" s="3">
+        <v>1672401302</v>
+      </c>
       <c r="E17" s="3">
-        <v>1672401303</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
-        <v>50</v>
-      </c>
-      <c r="G17" s="3">
         <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1.8</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>47</v>
@@ -2138,54 +2142,54 @@
       <c r="L17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>30</v>
+      </c>
+      <c r="O17" s="3">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O17" s="3">
-        <v>30</v>
-      </c>
-      <c r="P17" s="3">
-        <v>5</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:20">
+    <row r="18" s="1" customFormat="1" spans="1:19">
       <c r="A18"/>
-      <c r="C18" s="3">
-        <v>1304</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>1303</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D18" s="3">
+        <v>1672401303</v>
+      </c>
       <c r="E18" s="3">
-        <v>1672401304</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3">
         <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1.8</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>47</v>
@@ -2193,54 +2197,54 @@
       <c r="L18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>30</v>
+      </c>
+      <c r="O18" s="3">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O18" s="3">
-        <v>30</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="3"/>
+      <c r="S18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:20">
+    <row r="19" s="1" customFormat="1" spans="1:19">
       <c r="A19"/>
-      <c r="C19" s="3">
-        <v>1305</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>1304</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D19" s="3">
+        <v>1672401304</v>
+      </c>
       <c r="E19" s="3">
-        <v>1672401305</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
-        <v>50</v>
-      </c>
-      <c r="G19" s="3">
         <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.8</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>47</v>
@@ -2248,311 +2252,363 @@
       <c r="L19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N19" s="3">
+        <v>30</v>
+      </c>
+      <c r="O19" s="3">
+        <v>5</v>
+      </c>
+      <c r="P19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O19" s="3">
-        <v>30</v>
-      </c>
-      <c r="P19" s="3">
-        <v>5</v>
-      </c>
       <c r="Q19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:20">
+    <row r="20" s="1" customFormat="1" spans="1:19">
       <c r="A20"/>
-      <c r="C20" s="3">
-        <v>1401</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
+      <c r="B20" s="3">
+        <v>1305</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1672401305</v>
       </c>
       <c r="E20" s="3">
-        <v>1672401401</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N20" s="3">
+        <v>30</v>
+      </c>
+      <c r="O20" s="3">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:19">
+      <c r="A21"/>
+      <c r="B21" s="3">
+        <v>1401</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1672401401</v>
+      </c>
+      <c r="E21" s="3">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="3">
         <v>25</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3">
         <v>15</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="L21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>20</v>
+      </c>
+      <c r="O21" s="3">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:19">
+      <c r="A22"/>
+      <c r="B22" s="3">
+        <v>1402</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1672401402</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3">
+        <v>25</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="3">
         <v>1.5</v>
       </c>
-      <c r="O20" s="3">
+      <c r="N22" s="3">
         <v>20</v>
       </c>
-      <c r="P20" s="3">
+      <c r="O22" s="3">
         <v>5</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="5" t="s">
+      <c r="P22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:20">
-      <c r="A21"/>
-      <c r="C21" s="3">
-        <v>1402</v>
-      </c>
-      <c r="D21" s="3" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:19">
+      <c r="A23"/>
+      <c r="B23" s="3">
+        <v>1403</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="3">
-        <v>1672401402</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="D23" s="3">
+        <v>1672401403</v>
+      </c>
+      <c r="E23" s="3">
         <v>40</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="3">
         <v>25</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3">
         <v>15</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="L23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N23" s="3">
+        <v>20</v>
+      </c>
+      <c r="O23" s="3">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:19">
+      <c r="A24"/>
+      <c r="B24" s="3">
+        <v>1404</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1672401404</v>
+      </c>
+      <c r="E24" s="3">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="3">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="3">
         <v>1.5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="N24" s="3">
         <v>20</v>
       </c>
-      <c r="P21" s="3">
+      <c r="O24" s="3">
         <v>5</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S21" s="5" t="s">
+      <c r="P24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:20">
-      <c r="A22"/>
-      <c r="C22" s="3">
-        <v>1403</v>
-      </c>
-      <c r="D22" s="3" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:19">
+      <c r="A25"/>
+      <c r="B25" s="3">
+        <v>1405</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3">
-        <v>1672401403</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D25" s="3">
+        <v>1672401405</v>
+      </c>
+      <c r="E25" s="3">
         <v>40</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3">
         <v>25</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="H25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="3">
         <v>15</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="L25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="N25" s="3">
+        <v>20</v>
+      </c>
+      <c r="O25" s="3">
+        <v>5</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>20</v>
-      </c>
-      <c r="P22" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S22" s="5" t="s">
+      <c r="Q25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:20">
-      <c r="A23"/>
-      <c r="C23" s="3">
-        <v>1404</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1672401404</v>
-      </c>
-      <c r="F23" s="3">
-        <v>40</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="3">
-        <v>25</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="3">
-        <v>15</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O23" s="3">
-        <v>20</v>
-      </c>
-      <c r="P23" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:20">
-      <c r="A24"/>
-      <c r="C24" s="3">
-        <v>1405</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1672401405</v>
-      </c>
-      <c r="F24" s="3">
-        <v>40</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="3">
-        <v>25</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="O24" s="3">
-        <v>20</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2560,7 +2616,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K11:K14" numberStoredAsText="1"/>
+    <ignoredError sqref="J12:J15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/RTS/Unit.xlsx
+++ b/Excel/RTS/Unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>fullID</t>
+  </si>
+  <si>
+    <t>modleRadius</t>
   </si>
   <si>
     <t>#备注</t>
@@ -146,6 +149,9 @@
     <t>ID全名</t>
   </si>
   <si>
+    <t>模型半径</t>
+  </si>
+  <si>
     <t>Infantry</t>
   </si>
   <si>
@@ -231,6 +237,9 @@
   </si>
   <si>
     <t>Human_Cavalry_1</t>
+  </si>
+  <si>
+    <t>骑士</t>
   </si>
   <si>
     <t>Mage</t>
@@ -1222,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1238,16 +1247,17 @@
     <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="13" width="10.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="10.875" style="2" customWidth="1"/>
     <col min="14" max="14" width="8.19166666666667" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.96666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.9" style="2" customWidth="1"/>
     <col min="16" max="17" width="7.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="18" max="19" width="22.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,133 +1315,142 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="61" customHeight="1" spans="1:19">
+    <row r="4" s="1" customFormat="1" ht="61" customHeight="1" spans="1:20">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+    <row r="5" s="1" customFormat="1" spans="1:20">
       <c r="A5"/>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>1672401101</v>
@@ -1440,25 +1459,25 @@
         <v>10000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I5" s="3">
         <v>1.2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M5" s="3">
         <v>1.5</v>
@@ -1470,52 +1489,55 @@
         <v>5</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" s="1" customFormat="1" spans="1:20">
       <c r="A6"/>
       <c r="B6" s="3">
         <v>1101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3">
         <v>1672401101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="3">
         <v>1.2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M6" s="3">
         <v>1.5</v>
@@ -1527,52 +1549,55 @@
         <v>5</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:19">
+    <row r="7" s="1" customFormat="1" spans="1:20">
       <c r="A7"/>
       <c r="B7" s="3">
         <v>1102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>1672401102</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3">
         <v>1.2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M7" s="3">
         <v>1.5</v>
@@ -1584,52 +1609,55 @@
         <v>5</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:19">
+    <row r="8" s="1" customFormat="1" spans="1:20">
       <c r="A8"/>
       <c r="B8" s="3">
         <v>1103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3">
         <v>1672401103</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3">
         <v>1.2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="3">
         <v>1.5</v>
@@ -1641,52 +1669,55 @@
         <v>5</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:19">
+    <row r="9" s="1" customFormat="1" spans="1:20">
       <c r="A9"/>
       <c r="B9" s="3">
         <v>1104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3">
         <v>1672401104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="3">
         <v>1.2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="3">
         <v>1.5</v>
@@ -1698,52 +1729,55 @@
         <v>5</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:19">
+    <row r="10" s="1" customFormat="1" spans="1:20">
       <c r="A10"/>
       <c r="B10" s="3">
         <v>1105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3">
         <v>1672401105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="3">
         <v>1.2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="3">
         <v>1.5</v>
@@ -1755,25 +1789,28 @@
         <v>5</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:19">
+    <row r="11" s="1" customFormat="1" spans="1:20">
       <c r="A11"/>
       <c r="B11" s="3">
         <v>1201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3">
         <v>1672401201</v>
@@ -1782,25 +1819,25 @@
         <v>50</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="3">
         <v>1.5</v>
@@ -1812,25 +1849,28 @@
         <v>5</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:19">
+    <row r="12" s="1" customFormat="1" spans="1:20">
       <c r="A12"/>
       <c r="B12" s="3">
         <v>1202</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>1672401202</v>
@@ -1839,25 +1879,25 @@
         <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="3">
         <v>1.5</v>
@@ -1869,25 +1909,28 @@
         <v>5</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="S12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:19">
+    <row r="13" s="1" customFormat="1" spans="1:20">
       <c r="A13"/>
       <c r="B13" s="3">
         <v>1203</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3">
         <v>1672401203</v>
@@ -1896,25 +1939,25 @@
         <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="3">
         <v>1.5</v>
@@ -1926,25 +1969,28 @@
         <v>5</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:19">
+    <row r="14" s="1" customFormat="1" spans="1:20">
       <c r="A14"/>
       <c r="B14" s="3">
         <v>1204</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3">
         <v>1672401204</v>
@@ -1953,25 +1999,25 @@
         <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="3">
         <v>1.5</v>
@@ -1983,52 +2029,55 @@
         <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:19">
+    <row r="15" s="1" customFormat="1" spans="1:20">
       <c r="A15"/>
       <c r="B15" s="3">
         <v>1205</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3">
         <v>1672401205</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="3">
         <v>1.5</v>
@@ -2040,25 +2089,28 @@
         <v>5</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:19">
+    <row r="16" s="1" customFormat="1" spans="1:20">
       <c r="A16"/>
       <c r="B16" s="3">
         <v>1301</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3">
         <v>1672401301</v>
@@ -2070,22 +2122,22 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="3">
         <v>2.6</v>
@@ -2097,23 +2149,28 @@
         <v>5</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:19">
+    <row r="17" s="1" customFormat="1" spans="1:20">
       <c r="A17"/>
       <c r="B17" s="3">
         <v>1302</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3">
         <v>1672401302</v>
@@ -2125,22 +2182,22 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I17" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="3">
         <v>2.6</v>
@@ -2152,23 +2209,28 @@
         <v>5</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:19">
+    <row r="18" s="1" customFormat="1" spans="1:20">
       <c r="A18"/>
       <c r="B18" s="3">
         <v>1303</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3">
         <v>1672401303</v>
@@ -2180,22 +2242,22 @@
         <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I18" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="3">
         <v>2.6</v>
@@ -2207,23 +2269,28 @@
         <v>5</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:19">
+    <row r="19" s="1" customFormat="1" spans="1:20">
       <c r="A19"/>
       <c r="B19" s="3">
         <v>1304</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3">
         <v>1672401304</v>
@@ -2235,22 +2302,22 @@
         <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I19" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M19" s="3">
         <v>2.6</v>
@@ -2262,23 +2329,28 @@
         <v>5</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S19" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:19">
+    <row r="20" s="1" customFormat="1" spans="1:20">
       <c r="A20"/>
       <c r="B20" s="3">
         <v>1305</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3">
         <v>1672401305</v>
@@ -2290,22 +2362,22 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I20" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M20" s="3">
         <v>2.6</v>
@@ -2317,23 +2389,28 @@
         <v>5</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S20" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:19">
+    <row r="21" s="1" customFormat="1" spans="1:20">
       <c r="A21"/>
       <c r="B21" s="3">
         <v>1401</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3">
         <v>1672401401</v>
@@ -2342,25 +2419,25 @@
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3">
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I21" s="3">
         <v>15</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M21" s="3">
         <v>1.5</v>
@@ -2372,25 +2449,28 @@
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:19">
+    <row r="22" s="1" customFormat="1" spans="1:20">
       <c r="A22"/>
       <c r="B22" s="3">
         <v>1402</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3">
         <v>1672401402</v>
@@ -2399,25 +2479,25 @@
         <v>40</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3">
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I22" s="3">
         <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M22" s="3">
         <v>1.5</v>
@@ -2429,25 +2509,28 @@
         <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:19">
+    <row r="23" s="1" customFormat="1" spans="1:20">
       <c r="A23"/>
       <c r="B23" s="3">
         <v>1403</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3">
         <v>1672401403</v>
@@ -2456,25 +2539,25 @@
         <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G23" s="3">
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" s="3">
         <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="3">
         <v>1.5</v>
@@ -2486,25 +2569,28 @@
         <v>5</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:19">
+    <row r="24" s="1" customFormat="1" spans="1:20">
       <c r="A24"/>
       <c r="B24" s="3">
         <v>1404</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="3">
         <v>1672401404</v>
@@ -2513,25 +2599,25 @@
         <v>40</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G24" s="3">
         <v>25</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I24" s="3">
         <v>15</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M24" s="3">
         <v>1.5</v>
@@ -2543,25 +2629,28 @@
         <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:19">
+    <row r="25" s="1" customFormat="1" spans="1:20">
       <c r="A25"/>
       <c r="B25" s="3">
         <v>1405</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3">
         <v>1672401405</v>
@@ -2570,25 +2659,25 @@
         <v>40</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3">
         <v>25</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I25" s="3">
         <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M25" s="3">
         <v>1.5</v>
@@ -2600,16 +2689,19 @@
         <v>5</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/RTS/Unit.xlsx
+++ b/Excel/RTS/Unit.xlsx
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I20"/>
+      <selection activeCell="S17" sqref="S17:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2158,7 +2158,7 @@
         <v>72</v>
       </c>
       <c r="S16" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>73</v>
@@ -2218,7 +2218,7 @@
         <v>72</v>
       </c>
       <c r="S17" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>73</v>
@@ -2278,7 +2278,7 @@
         <v>72</v>
       </c>
       <c r="S18" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>73</v>
@@ -2338,7 +2338,7 @@
         <v>72</v>
       </c>
       <c r="S19" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>73</v>
@@ -2398,7 +2398,7 @@
         <v>72</v>
       </c>
       <c r="S20" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>73</v>
